--- a/tmp/cry/data/CrystalData.xlsx
+++ b/tmp/cry/data/CrystalData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -37,9 +35,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,9 +49,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -63,9 +57,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -79,9 +71,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -89,9 +79,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,9 +93,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -115,9 +101,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -131,9 +115,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -141,9 +123,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -158,174 +138,475 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
+    <t>增加炮塔攻击力</t>
+  </si>
+  <si>
     <t>减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直接扣血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>范围攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>原石消耗</t>
   </si>
   <si>
     <t>升级等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加炮塔攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马卡水晶</t>
+  </si>
+  <si>
+    <t>幽蓝冰晶</t>
+  </si>
+  <si>
+    <t>祖母绿晶</t>
+  </si>
+  <si>
+    <t>忧郁水晶</t>
+  </si>
+  <si>
+    <t>烈焰火晶</t>
   </si>
   <si>
     <t>1-10关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>经验：5-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶碎片：1-2</t>
+  </si>
+  <si>
+    <t>三星加成：EXP+5,碎片+2</t>
   </si>
   <si>
     <t>11-20关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>经验：8-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶碎片：2-4</t>
+  </si>
+  <si>
+    <t>三星加成：EXP+10,碎片+3</t>
   </si>
   <si>
     <t>21-30关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星加成：EXP+5,碎片+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星加成：EXP+10,碎片+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验：11-25</t>
+  </si>
+  <si>
+    <t>水晶碎片：3-5</t>
   </si>
   <si>
     <t>三星加成：EXP+15,碎片+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽蓝冰晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖母绿晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忧郁水晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰火晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马卡水晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原石消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1原石 = 50 碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶碎片：2-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶碎片：1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶碎片：3-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验：11-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4种水晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水晶原石礼包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>经验瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大、中、小</t>
   </si>
   <si>
     <t>新手礼包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大、中、小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -333,11 +614,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,17 +868,58 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -366,7 +930,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -388,7 +952,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -401,8 +965,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3533776" y="0"/>
-          <a:ext cx="942974" cy="942974"/>
+          <a:off x="3886200" y="0"/>
+          <a:ext cx="942975" cy="942340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -432,7 +996,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -445,7 +1009,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2295525" y="0"/>
+          <a:off x="2647950" y="0"/>
           <a:ext cx="923925" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -476,7 +1040,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -489,7 +1053,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4695825" y="0"/>
+          <a:off x="5048250" y="0"/>
           <a:ext cx="942975" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -520,7 +1084,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -533,7 +1097,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="0"/>
+          <a:off x="6248400" y="0"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -564,7 +1128,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -577,7 +1141,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2362200" y="0"/>
+          <a:off x="1343025" y="0"/>
           <a:ext cx="923925" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -871,20 +1435,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
@@ -892,548 +1455,554 @@
     <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="19.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="7" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="19.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" ht="75.75" customHeight="1"/>
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
         <v>15</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="4" spans="10:13">
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.14</v>
+      </c>
+      <c r="G7" s="1">
+        <v>300</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="G8" s="1">
+        <v>600</v>
+      </c>
+      <c r="H8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="B11" s="2">
+        <v>0.14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.14</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="B12" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.14</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>50</v>
-      </c>
-      <c r="H4" s="4">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="B16" s="2">
+        <v>0.28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.28</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.28</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="G5" s="1">
-        <v>100</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="B17" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.56</v>
+      </c>
+      <c r="G17" s="1">
+        <v>12000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <v>300</v>
-      </c>
-      <c r="H6" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="G7" s="1">
-        <v>600</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="B19" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H9" s="4">
-        <v>100</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H10" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H11" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H12" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H13" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="G14" s="1">
-        <v>8000</v>
-      </c>
-      <c r="H14" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H15" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G16" s="1">
-        <v>12000</v>
-      </c>
-      <c r="H16" s="4">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="G17" s="1">
-        <v>15000</v>
-      </c>
-      <c r="H17" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G18" s="1">
-        <v>20000</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>